--- a/output/output_test_1800s_random_50_80_painless.xlsx
+++ b/output/output_test_1800s_random_50_80_painless.xlsx
@@ -572,7 +572,7 @@
         <v>1</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="5">
@@ -609,7 +609,7 @@
         <v>1</v>
       </c>
       <c r="K5" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="6">
